--- a/Documentacion/Analisis/REGISTRO DE INSPECCIONES 2017.xlsx
+++ b/Documentacion/Analisis/REGISTRO DE INSPECCIONES 2017.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18067"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18201"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Residencias\Documentacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Residencias\Documentacion\Analisis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -189,7 +189,7 @@
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -375,6 +375,14 @@
       <b/>
       <sz val="10"/>
       <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="8"/>
+      <color indexed="63"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -816,7 +824,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="243">
+  <cellXfs count="244">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
@@ -1288,30 +1296,135 @@
     <xf numFmtId="4" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1333,77 +1446,62 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="20" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1411,58 +1509,13 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="20" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1471,68 +1524,26 @@
     <xf numFmtId="14" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2275,84 +2286,84 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="166" t="s">
+      <c r="C2" s="173" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="166"/>
-      <c r="E2" s="166"/>
-      <c r="F2" s="166"/>
-      <c r="G2" s="166"/>
-      <c r="H2" s="166"/>
-      <c r="I2" s="166"/>
-      <c r="J2" s="166"/>
-      <c r="K2" s="166"/>
-      <c r="L2" s="166"/>
-      <c r="M2" s="166"/>
-      <c r="N2" s="166"/>
-      <c r="O2" s="166"/>
-      <c r="P2" s="166"/>
-      <c r="Q2" s="166"/>
-      <c r="R2" s="166"/>
+      <c r="D2" s="173"/>
+      <c r="E2" s="173"/>
+      <c r="F2" s="173"/>
+      <c r="G2" s="173"/>
+      <c r="H2" s="173"/>
+      <c r="I2" s="173"/>
+      <c r="J2" s="173"/>
+      <c r="K2" s="173"/>
+      <c r="L2" s="173"/>
+      <c r="M2" s="173"/>
+      <c r="N2" s="173"/>
+      <c r="O2" s="173"/>
+      <c r="P2" s="173"/>
+      <c r="Q2" s="173"/>
+      <c r="R2" s="173"/>
     </row>
     <row r="3" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="166" t="s">
+      <c r="C3" s="173" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="166"/>
-      <c r="E3" s="166"/>
-      <c r="F3" s="166"/>
-      <c r="G3" s="166"/>
-      <c r="H3" s="166"/>
-      <c r="I3" s="166"/>
-      <c r="J3" s="166"/>
-      <c r="K3" s="166"/>
-      <c r="L3" s="166"/>
-      <c r="M3" s="166"/>
-      <c r="N3" s="166"/>
-      <c r="O3" s="166"/>
-      <c r="P3" s="166"/>
-      <c r="Q3" s="166"/>
-      <c r="R3" s="166"/>
+      <c r="D3" s="173"/>
+      <c r="E3" s="173"/>
+      <c r="F3" s="173"/>
+      <c r="G3" s="173"/>
+      <c r="H3" s="173"/>
+      <c r="I3" s="173"/>
+      <c r="J3" s="173"/>
+      <c r="K3" s="173"/>
+      <c r="L3" s="173"/>
+      <c r="M3" s="173"/>
+      <c r="N3" s="173"/>
+      <c r="O3" s="173"/>
+      <c r="P3" s="173"/>
+      <c r="Q3" s="173"/>
+      <c r="R3" s="173"/>
     </row>
     <row r="4" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="166" t="s">
+      <c r="C4" s="173" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="166"/>
-      <c r="E4" s="166"/>
-      <c r="F4" s="166"/>
-      <c r="G4" s="166"/>
-      <c r="H4" s="166"/>
-      <c r="I4" s="166"/>
-      <c r="J4" s="166"/>
-      <c r="K4" s="166"/>
-      <c r="L4" s="166"/>
-      <c r="M4" s="166"/>
-      <c r="N4" s="166"/>
-      <c r="O4" s="166"/>
-      <c r="P4" s="166"/>
-      <c r="Q4" s="166"/>
-      <c r="R4" s="166"/>
+      <c r="D4" s="173"/>
+      <c r="E4" s="173"/>
+      <c r="F4" s="173"/>
+      <c r="G4" s="173"/>
+      <c r="H4" s="173"/>
+      <c r="I4" s="173"/>
+      <c r="J4" s="173"/>
+      <c r="K4" s="173"/>
+      <c r="L4" s="173"/>
+      <c r="M4" s="173"/>
+      <c r="N4" s="173"/>
+      <c r="O4" s="173"/>
+      <c r="P4" s="173"/>
+      <c r="Q4" s="173"/>
+      <c r="R4" s="173"/>
     </row>
     <row r="5" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="168" t="s">
+      <c r="C5" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="168"/>
-      <c r="E5" s="168"/>
-      <c r="F5" s="168"/>
-      <c r="G5" s="168"/>
-      <c r="H5" s="168"/>
-      <c r="I5" s="168"/>
-      <c r="J5" s="168"/>
-      <c r="K5" s="168"/>
-      <c r="L5" s="168"/>
-      <c r="M5" s="168"/>
-      <c r="N5" s="168"/>
-      <c r="O5" s="168"/>
-      <c r="P5" s="168"/>
-      <c r="Q5" s="168"/>
-      <c r="R5" s="168"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="178"/>
+      <c r="I5" s="178"/>
+      <c r="J5" s="178"/>
+      <c r="K5" s="178"/>
+      <c r="L5" s="178"/>
+      <c r="M5" s="178"/>
+      <c r="N5" s="178"/>
+      <c r="O5" s="178"/>
+      <c r="P5" s="178"/>
+      <c r="Q5" s="178"/>
+      <c r="R5" s="178"/>
     </row>
     <row r="8" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="1"/>
@@ -2363,8 +2374,8 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="167"/>
-      <c r="L8" s="167"/>
+      <c r="K8" s="177"/>
+      <c r="L8" s="177"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -2373,102 +2384,102 @@
       <c r="R8" s="2"/>
     </row>
     <row r="9" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="161" t="s">
+      <c r="A9" s="174" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="161" t="s">
+      <c r="B9" s="174" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="161" t="s">
+      <c r="C9" s="174" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="161" t="s">
+      <c r="D9" s="174" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="161" t="s">
+      <c r="E9" s="174" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="161" t="s">
+      <c r="F9" s="174" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="161" t="s">
+      <c r="G9" s="174" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="161" t="s">
+      <c r="H9" s="174" t="s">
         <v>33</v>
       </c>
-      <c r="I9" s="161" t="s">
+      <c r="I9" s="174" t="s">
         <v>7</v>
       </c>
-      <c r="J9" s="161" t="s">
+      <c r="J9" s="174" t="s">
         <v>8</v>
       </c>
-      <c r="K9" s="164" t="s">
+      <c r="K9" s="179" t="s">
         <v>3</v>
       </c>
-      <c r="L9" s="165"/>
-      <c r="M9" s="161" t="s">
+      <c r="L9" s="180"/>
+      <c r="M9" s="174" t="s">
         <v>15</v>
       </c>
-      <c r="N9" s="161" t="s">
+      <c r="N9" s="174" t="s">
         <v>16</v>
       </c>
-      <c r="O9" s="161" t="s">
+      <c r="O9" s="174" t="s">
         <v>17</v>
       </c>
-      <c r="P9" s="161" t="s">
+      <c r="P9" s="174" t="s">
         <v>18</v>
       </c>
-      <c r="Q9" s="161" t="s">
+      <c r="Q9" s="174" t="s">
         <v>19</v>
       </c>
-      <c r="R9" s="161" t="s">
+      <c r="R9" s="174" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="162"/>
-      <c r="B10" s="162"/>
-      <c r="C10" s="162"/>
-      <c r="D10" s="162"/>
-      <c r="E10" s="162"/>
-      <c r="F10" s="162"/>
-      <c r="G10" s="162"/>
-      <c r="H10" s="162"/>
-      <c r="I10" s="162"/>
-      <c r="J10" s="162"/>
-      <c r="K10" s="161" t="s">
+      <c r="A10" s="175"/>
+      <c r="B10" s="175"/>
+      <c r="C10" s="175"/>
+      <c r="D10" s="175"/>
+      <c r="E10" s="175"/>
+      <c r="F10" s="175"/>
+      <c r="G10" s="175"/>
+      <c r="H10" s="175"/>
+      <c r="I10" s="175"/>
+      <c r="J10" s="175"/>
+      <c r="K10" s="174" t="s">
         <v>13</v>
       </c>
-      <c r="L10" s="161" t="s">
+      <c r="L10" s="174" t="s">
         <v>14</v>
       </c>
-      <c r="M10" s="162"/>
-      <c r="N10" s="162"/>
-      <c r="O10" s="162"/>
-      <c r="P10" s="162"/>
-      <c r="Q10" s="162"/>
-      <c r="R10" s="162"/>
+      <c r="M10" s="175"/>
+      <c r="N10" s="175"/>
+      <c r="O10" s="175"/>
+      <c r="P10" s="175"/>
+      <c r="Q10" s="175"/>
+      <c r="R10" s="175"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A11" s="163"/>
-      <c r="B11" s="163"/>
-      <c r="C11" s="163"/>
-      <c r="D11" s="163"/>
-      <c r="E11" s="163"/>
-      <c r="F11" s="163"/>
+      <c r="A11" s="176"/>
+      <c r="B11" s="176"/>
+      <c r="C11" s="176"/>
+      <c r="D11" s="176"/>
+      <c r="E11" s="176"/>
+      <c r="F11" s="176"/>
       <c r="G11" s="31"/>
       <c r="H11" s="31"/>
-      <c r="I11" s="163"/>
-      <c r="J11" s="163"/>
-      <c r="K11" s="163"/>
-      <c r="L11" s="163"/>
-      <c r="M11" s="163"/>
-      <c r="N11" s="163"/>
-      <c r="O11" s="163"/>
-      <c r="P11" s="163"/>
-      <c r="Q11" s="163"/>
-      <c r="R11" s="163"/>
+      <c r="I11" s="176"/>
+      <c r="J11" s="176"/>
+      <c r="K11" s="176"/>
+      <c r="L11" s="176"/>
+      <c r="M11" s="176"/>
+      <c r="N11" s="176"/>
+      <c r="O11" s="176"/>
+      <c r="P11" s="176"/>
+      <c r="Q11" s="176"/>
+      <c r="R11" s="176"/>
     </row>
     <row r="12" spans="1:18" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="23"/>
@@ -4792,6 +4803,17 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="P9:P11"/>
+    <mergeCell ref="Q9:Q11"/>
+    <mergeCell ref="R9:R11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="N9:N11"/>
+    <mergeCell ref="O9:O11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="H9:H10"/>
     <mergeCell ref="C2:R2"/>
     <mergeCell ref="C3:R3"/>
     <mergeCell ref="C4:R4"/>
@@ -4805,17 +4827,6 @@
     <mergeCell ref="C5:R5"/>
     <mergeCell ref="M9:M11"/>
     <mergeCell ref="G9:G10"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="P9:P11"/>
-    <mergeCell ref="Q9:Q11"/>
-    <mergeCell ref="R9:R11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="N9:N11"/>
-    <mergeCell ref="O9:O11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="H9:H10"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="J12">
@@ -4864,81 +4875,81 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="166" t="s">
+      <c r="B2" s="173" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="166"/>
-      <c r="D2" s="166"/>
-      <c r="E2" s="166"/>
-      <c r="F2" s="166"/>
-      <c r="G2" s="166"/>
-      <c r="H2" s="166"/>
+      <c r="C2" s="173"/>
+      <c r="D2" s="173"/>
+      <c r="E2" s="173"/>
+      <c r="F2" s="173"/>
+      <c r="G2" s="173"/>
+      <c r="H2" s="173"/>
       <c r="I2" s="34"/>
       <c r="J2" s="34"/>
       <c r="K2" s="39"/>
     </row>
     <row r="3" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="166" t="s">
+      <c r="B3" s="173" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="166"/>
-      <c r="D3" s="166"/>
-      <c r="E3" s="166"/>
-      <c r="F3" s="166"/>
-      <c r="G3" s="166"/>
-      <c r="H3" s="166"/>
+      <c r="C3" s="173"/>
+      <c r="D3" s="173"/>
+      <c r="E3" s="173"/>
+      <c r="F3" s="173"/>
+      <c r="G3" s="173"/>
+      <c r="H3" s="173"/>
       <c r="I3" s="34"/>
       <c r="J3" s="34"/>
       <c r="K3" s="39"/>
     </row>
     <row r="4" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="166" t="s">
+      <c r="B4" s="173" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="166"/>
-      <c r="D4" s="166"/>
-      <c r="E4" s="166"/>
-      <c r="F4" s="166"/>
-      <c r="G4" s="166"/>
-      <c r="H4" s="166"/>
+      <c r="C4" s="173"/>
+      <c r="D4" s="173"/>
+      <c r="E4" s="173"/>
+      <c r="F4" s="173"/>
+      <c r="G4" s="173"/>
+      <c r="H4" s="173"/>
       <c r="I4" s="34"/>
       <c r="J4" s="34"/>
       <c r="K4" s="39"/>
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="168" t="s">
+      <c r="B5" s="178" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="168"/>
-      <c r="D5" s="168"/>
-      <c r="E5" s="168"/>
-      <c r="F5" s="168"/>
-      <c r="G5" s="168"/>
-      <c r="H5" s="168"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="178"/>
       <c r="I5" s="36"/>
       <c r="J5" s="36"/>
       <c r="K5" s="40"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="168"/>
-      <c r="C6" s="168"/>
-      <c r="D6" s="168"/>
-      <c r="E6" s="168"/>
-      <c r="F6" s="168"/>
-      <c r="G6" s="168"/>
-      <c r="H6" s="168"/>
+      <c r="B6" s="178"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
       <c r="I6" s="36"/>
       <c r="J6" s="36"/>
       <c r="K6" s="40"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="168"/>
-      <c r="C7" s="168"/>
-      <c r="D7" s="168"/>
-      <c r="E7" s="168"/>
-      <c r="F7" s="168"/>
-      <c r="G7" s="168"/>
-      <c r="H7" s="168"/>
+      <c r="B7" s="178"/>
+      <c r="C7" s="178"/>
+      <c r="D7" s="178"/>
+      <c r="E7" s="178"/>
+      <c r="F7" s="178"/>
+      <c r="G7" s="178"/>
+      <c r="H7" s="178"/>
       <c r="I7" s="36"/>
       <c r="J7" s="36"/>
       <c r="K7" s="40"/>
@@ -4950,49 +4961,49 @@
       <c r="F8" s="35"/>
       <c r="G8" s="35"/>
       <c r="H8" s="35"/>
-      <c r="I8" s="173" t="s">
+      <c r="I8" s="208" t="s">
         <v>43</v>
       </c>
-      <c r="J8" s="174"/>
-      <c r="K8" s="175"/>
+      <c r="J8" s="209"/>
+      <c r="K8" s="210"/>
     </row>
     <row r="9" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="169" t="s">
+      <c r="A9" s="204" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="180" t="s">
+      <c r="B9" s="196" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="182" t="s">
+      <c r="C9" s="198" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="182" t="s">
+      <c r="D9" s="198" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="186" t="s">
+      <c r="E9" s="202" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="183" t="s">
+      <c r="F9" s="199" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="184"/>
-      <c r="H9" s="185"/>
-      <c r="I9" s="179" t="s">
+      <c r="G9" s="200"/>
+      <c r="H9" s="201"/>
+      <c r="I9" s="195" t="s">
         <v>44</v>
       </c>
-      <c r="J9" s="188" t="s">
+      <c r="J9" s="189" t="s">
         <v>45</v>
       </c>
-      <c r="K9" s="189" t="s">
+      <c r="K9" s="190" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="170"/>
-      <c r="B10" s="181"/>
-      <c r="C10" s="162"/>
-      <c r="D10" s="162"/>
-      <c r="E10" s="187"/>
+      <c r="A10" s="205"/>
+      <c r="B10" s="197"/>
+      <c r="C10" s="175"/>
+      <c r="D10" s="175"/>
+      <c r="E10" s="203"/>
       <c r="F10" s="41" t="s">
         <v>9</v>
       </c>
@@ -5002,16 +5013,16 @@
       <c r="H10" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="179"/>
-      <c r="J10" s="188"/>
-      <c r="K10" s="190"/>
+      <c r="I10" s="195"/>
+      <c r="J10" s="189"/>
+      <c r="K10" s="191"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="171"/>
-      <c r="B11" s="181"/>
-      <c r="C11" s="162"/>
-      <c r="D11" s="162"/>
-      <c r="E11" s="187"/>
+      <c r="A11" s="206"/>
+      <c r="B11" s="197"/>
+      <c r="C11" s="175"/>
+      <c r="D11" s="175"/>
+      <c r="E11" s="203"/>
       <c r="F11" s="50">
         <v>200</v>
       </c>
@@ -5021,9 +5032,9 @@
       <c r="H11" s="52">
         <v>200</v>
       </c>
-      <c r="I11" s="179"/>
-      <c r="J11" s="188"/>
-      <c r="K11" s="191"/>
+      <c r="I11" s="195"/>
+      <c r="J11" s="189"/>
+      <c r="K11" s="192"/>
     </row>
     <row r="12" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="100"/>
@@ -5125,9 +5136,9 @@
       <c r="F19" s="65"/>
       <c r="G19" s="53"/>
       <c r="H19" s="53"/>
-      <c r="I19" s="176"/>
-      <c r="J19" s="176"/>
-      <c r="K19" s="176"/>
+      <c r="I19" s="187"/>
+      <c r="J19" s="187"/>
+      <c r="K19" s="187"/>
     </row>
     <row r="20" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="100"/>
@@ -5138,9 +5149,9 @@
       <c r="F20" s="65"/>
       <c r="G20" s="53"/>
       <c r="H20" s="53"/>
-      <c r="I20" s="176"/>
-      <c r="J20" s="176"/>
-      <c r="K20" s="176"/>
+      <c r="I20" s="187"/>
+      <c r="J20" s="187"/>
+      <c r="K20" s="187"/>
     </row>
     <row r="21" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="100"/>
@@ -5156,30 +5167,30 @@
       <c r="K21" s="43"/>
     </row>
     <row r="22" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="172"/>
-      <c r="B22" s="192"/>
-      <c r="C22" s="193"/>
-      <c r="D22" s="176"/>
-      <c r="E22" s="176"/>
+      <c r="A22" s="207"/>
+      <c r="B22" s="193"/>
+      <c r="C22" s="194"/>
+      <c r="D22" s="187"/>
+      <c r="E22" s="187"/>
       <c r="F22" s="65"/>
       <c r="G22" s="53"/>
       <c r="H22" s="53"/>
-      <c r="I22" s="176"/>
-      <c r="J22" s="178"/>
-      <c r="K22" s="178"/>
+      <c r="I22" s="187"/>
+      <c r="J22" s="188"/>
+      <c r="K22" s="188"/>
     </row>
     <row r="23" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="171"/>
-      <c r="B23" s="192"/>
-      <c r="C23" s="193"/>
-      <c r="D23" s="176"/>
-      <c r="E23" s="176"/>
+      <c r="A23" s="206"/>
+      <c r="B23" s="193"/>
+      <c r="C23" s="194"/>
+      <c r="D23" s="187"/>
+      <c r="E23" s="187"/>
       <c r="F23" s="65"/>
       <c r="G23" s="53"/>
       <c r="H23" s="53"/>
-      <c r="I23" s="176"/>
-      <c r="J23" s="176"/>
-      <c r="K23" s="176"/>
+      <c r="I23" s="187"/>
+      <c r="J23" s="187"/>
+      <c r="K23" s="187"/>
     </row>
     <row r="24" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="100"/>
@@ -5346,9 +5357,9 @@
       <c r="F36" s="66"/>
       <c r="G36" s="53"/>
       <c r="H36" s="53"/>
-      <c r="I36" s="176"/>
-      <c r="J36" s="176"/>
-      <c r="K36" s="176"/>
+      <c r="I36" s="187"/>
+      <c r="J36" s="187"/>
+      <c r="K36" s="187"/>
     </row>
     <row r="37" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="100"/>
@@ -5403,30 +5414,30 @@
       <c r="K40" s="56"/>
     </row>
     <row r="41" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="172"/>
-      <c r="B41" s="192"/>
-      <c r="C41" s="193"/>
-      <c r="D41" s="176"/>
-      <c r="E41" s="176"/>
+      <c r="A41" s="207"/>
+      <c r="B41" s="193"/>
+      <c r="C41" s="194"/>
+      <c r="D41" s="187"/>
+      <c r="E41" s="187"/>
       <c r="F41" s="67"/>
       <c r="G41" s="53"/>
       <c r="H41" s="53"/>
-      <c r="I41" s="177"/>
-      <c r="J41" s="178"/>
-      <c r="K41" s="178"/>
+      <c r="I41" s="211"/>
+      <c r="J41" s="188"/>
+      <c r="K41" s="188"/>
     </row>
     <row r="42" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="171"/>
-      <c r="B42" s="192"/>
-      <c r="C42" s="193"/>
-      <c r="D42" s="176"/>
-      <c r="E42" s="176"/>
+      <c r="A42" s="206"/>
+      <c r="B42" s="193"/>
+      <c r="C42" s="194"/>
+      <c r="D42" s="187"/>
+      <c r="E42" s="187"/>
       <c r="F42" s="67"/>
       <c r="G42" s="53"/>
       <c r="H42" s="53"/>
-      <c r="I42" s="177"/>
-      <c r="J42" s="176"/>
-      <c r="K42" s="176"/>
+      <c r="I42" s="211"/>
+      <c r="J42" s="187"/>
+      <c r="K42" s="187"/>
     </row>
     <row r="43" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="100"/>
@@ -5463,9 +5474,9 @@
       <c r="F45" s="66"/>
       <c r="G45" s="53"/>
       <c r="H45" s="53"/>
-      <c r="I45" s="176"/>
-      <c r="J45" s="176"/>
-      <c r="K45" s="176"/>
+      <c r="I45" s="187"/>
+      <c r="J45" s="187"/>
+      <c r="K45" s="187"/>
     </row>
     <row r="46" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="100"/>
@@ -5476,9 +5487,9 @@
       <c r="F46" s="66"/>
       <c r="G46" s="53"/>
       <c r="H46" s="53"/>
-      <c r="I46" s="176"/>
-      <c r="J46" s="176"/>
-      <c r="K46" s="176"/>
+      <c r="I46" s="187"/>
+      <c r="J46" s="187"/>
+      <c r="K46" s="187"/>
     </row>
     <row r="47" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="100"/>
@@ -5489,9 +5500,9 @@
       <c r="F47" s="53"/>
       <c r="G47" s="53"/>
       <c r="H47" s="53"/>
-      <c r="I47" s="176"/>
-      <c r="J47" s="176"/>
-      <c r="K47" s="176"/>
+      <c r="I47" s="187"/>
+      <c r="J47" s="187"/>
+      <c r="K47" s="187"/>
     </row>
     <row r="48" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="100"/>
@@ -5689,11 +5700,11 @@
       <c r="K62" s="11"/>
     </row>
     <row r="63" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="172"/>
-      <c r="B63" s="196"/>
-      <c r="C63" s="198"/>
-      <c r="D63" s="194"/>
-      <c r="E63" s="194"/>
+      <c r="A63" s="207"/>
+      <c r="B63" s="183"/>
+      <c r="C63" s="185"/>
+      <c r="D63" s="181"/>
+      <c r="E63" s="181"/>
       <c r="F63" s="44"/>
       <c r="G63" s="44"/>
       <c r="H63" s="44"/>
@@ -5702,11 +5713,11 @@
       <c r="K63" s="11"/>
     </row>
     <row r="64" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="171"/>
-      <c r="B64" s="197"/>
-      <c r="C64" s="199"/>
-      <c r="D64" s="195"/>
-      <c r="E64" s="195"/>
+      <c r="A64" s="206"/>
+      <c r="B64" s="184"/>
+      <c r="C64" s="186"/>
+      <c r="D64" s="182"/>
+      <c r="E64" s="182"/>
       <c r="F64" s="44"/>
       <c r="G64" s="44"/>
       <c r="H64" s="44"/>
@@ -6587,31 +6598,6 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="J9:J11"/>
-    <mergeCell ref="K9:K11"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B5:H7"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B3:H3"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A41:A42"/>
@@ -6628,6 +6614,31 @@
     <mergeCell ref="D41:D42"/>
     <mergeCell ref="E41:E42"/>
     <mergeCell ref="I45:K45"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B5:H7"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="J9:J11"/>
+    <mergeCell ref="K9:K11"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="I22:I23"/>
   </mergeCells>
   <conditionalFormatting sqref="F37:F38 F14:F35 F48:F131">
     <cfRule type="cellIs" dxfId="33" priority="27" stopIfTrue="1" operator="greaterThan">
@@ -6726,7 +6737,7 @@
       <pane xSplit="3" ySplit="10" topLeftCell="D49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="F49" sqref="F49"/>
+      <selection pane="bottomRight" activeCell="F9" sqref="F9:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6742,126 +6753,126 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="166" t="s">
+      <c r="B2" s="173" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="166"/>
-      <c r="D2" s="166"/>
-      <c r="E2" s="166"/>
+      <c r="C2" s="173"/>
+      <c r="D2" s="173"/>
+      <c r="E2" s="173"/>
       <c r="F2" s="93"/>
     </row>
     <row r="3" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="166" t="s">
+      <c r="B3" s="173" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="166"/>
-      <c r="D3" s="166"/>
-      <c r="E3" s="166"/>
+      <c r="C3" s="173"/>
+      <c r="D3" s="173"/>
+      <c r="E3" s="173"/>
       <c r="F3" s="93"/>
     </row>
     <row r="4" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="166" t="s">
+      <c r="B4" s="173" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="166"/>
-      <c r="D4" s="166"/>
-      <c r="E4" s="166"/>
+      <c r="C4" s="173"/>
+      <c r="D4" s="173"/>
+      <c r="E4" s="173"/>
       <c r="F4" s="93"/>
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="168" t="s">
+      <c r="B5" s="178" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="168"/>
-      <c r="D5" s="168"/>
-      <c r="E5" s="168"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
       <c r="F5" s="94"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="168"/>
-      <c r="C6" s="168"/>
-      <c r="D6" s="168"/>
-      <c r="E6" s="168"/>
+      <c r="B6" s="178"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
       <c r="F6" s="94"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="168"/>
-      <c r="C7" s="168"/>
-      <c r="D7" s="168"/>
-      <c r="E7" s="168"/>
+      <c r="B7" s="178"/>
+      <c r="C7" s="178"/>
+      <c r="D7" s="178"/>
+      <c r="E7" s="178"/>
       <c r="F7" s="94"/>
     </row>
     <row r="8" spans="1:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="213" t="s">
+      <c r="F8" s="212" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="214"/>
-      <c r="H8" s="214"/>
-      <c r="I8" s="215"/>
+      <c r="G8" s="213"/>
+      <c r="H8" s="213"/>
+      <c r="I8" s="214"/>
     </row>
     <row r="9" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="169" t="s">
+      <c r="A9" s="204" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="180" t="s">
+      <c r="B9" s="196" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="182" t="s">
+      <c r="C9" s="198" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="182" t="s">
+      <c r="D9" s="198" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="186" t="s">
+      <c r="E9" s="202" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="207" t="s">
+      <c r="F9" s="223" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="210" t="s">
+      <c r="G9" s="225" t="s">
         <v>49</v>
       </c>
-      <c r="H9" s="216" t="s">
+      <c r="H9" s="215" t="s">
         <v>39</v>
       </c>
-      <c r="I9" s="209" t="s">
+      <c r="I9" s="218" t="s">
         <v>46</v>
       </c>
-      <c r="J9" s="204" t="s">
+      <c r="J9" s="220" t="s">
         <v>40</v>
       </c>
-      <c r="K9" s="204" t="s">
+      <c r="K9" s="220" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="170"/>
-      <c r="B10" s="181"/>
-      <c r="C10" s="162"/>
-      <c r="D10" s="162"/>
-      <c r="E10" s="187"/>
-      <c r="F10" s="208"/>
-      <c r="G10" s="210"/>
-      <c r="H10" s="217"/>
+      <c r="A10" s="205"/>
+      <c r="B10" s="197"/>
+      <c r="C10" s="175"/>
+      <c r="D10" s="175"/>
+      <c r="E10" s="203"/>
+      <c r="F10" s="224"/>
+      <c r="G10" s="225"/>
+      <c r="H10" s="216"/>
       <c r="I10" s="219"/>
-      <c r="J10" s="205"/>
-      <c r="K10" s="205"/>
+      <c r="J10" s="221"/>
+      <c r="K10" s="221"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="171"/>
-      <c r="B11" s="181"/>
-      <c r="C11" s="162"/>
-      <c r="D11" s="162"/>
-      <c r="E11" s="187"/>
-      <c r="F11" s="209"/>
-      <c r="G11" s="210"/>
-      <c r="H11" s="218"/>
+      <c r="A11" s="206"/>
+      <c r="B11" s="197"/>
+      <c r="C11" s="175"/>
+      <c r="D11" s="175"/>
+      <c r="E11" s="203"/>
+      <c r="F11" s="218"/>
+      <c r="G11" s="225"/>
+      <c r="H11" s="217"/>
       <c r="I11" s="97"/>
-      <c r="J11" s="206"/>
-      <c r="K11" s="206"/>
+      <c r="J11" s="222"/>
+      <c r="K11" s="222"/>
     </row>
     <row r="12" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="100"/>
@@ -6968,27 +6979,27 @@
       <c r="K19" s="47"/>
     </row>
     <row r="20" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="172"/>
-      <c r="B20" s="192"/>
-      <c r="C20" s="193"/>
-      <c r="D20" s="176"/>
-      <c r="E20" s="176"/>
-      <c r="F20" s="178"/>
-      <c r="G20" s="178"/>
-      <c r="H20" s="211"/>
+      <c r="A20" s="207"/>
+      <c r="B20" s="193"/>
+      <c r="C20" s="194"/>
+      <c r="D20" s="187"/>
+      <c r="E20" s="187"/>
+      <c r="F20" s="188"/>
+      <c r="G20" s="188"/>
+      <c r="H20" s="226"/>
       <c r="I20" s="99"/>
       <c r="J20" s="55"/>
       <c r="K20" s="55"/>
     </row>
     <row r="21" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="171"/>
-      <c r="B21" s="192"/>
-      <c r="C21" s="193"/>
-      <c r="D21" s="176"/>
-      <c r="E21" s="176"/>
-      <c r="F21" s="178"/>
-      <c r="G21" s="178"/>
-      <c r="H21" s="212"/>
+      <c r="A21" s="206"/>
+      <c r="B21" s="193"/>
+      <c r="C21" s="194"/>
+      <c r="D21" s="187"/>
+      <c r="E21" s="187"/>
+      <c r="F21" s="188"/>
+      <c r="G21" s="188"/>
+      <c r="H21" s="227"/>
       <c r="I21" s="100"/>
       <c r="J21" s="55"/>
       <c r="K21" s="55"/>
@@ -7176,30 +7187,30 @@
       <c r="K35" s="74"/>
     </row>
     <row r="36" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="172"/>
-      <c r="B36" s="192"/>
-      <c r="C36" s="193"/>
-      <c r="D36" s="176"/>
-      <c r="E36" s="176"/>
-      <c r="F36" s="178"/>
-      <c r="G36" s="176"/>
-      <c r="H36" s="202"/>
+      <c r="A36" s="207"/>
+      <c r="B36" s="193"/>
+      <c r="C36" s="194"/>
+      <c r="D36" s="187"/>
+      <c r="E36" s="187"/>
+      <c r="F36" s="188"/>
+      <c r="G36" s="187"/>
+      <c r="H36" s="228"/>
       <c r="I36" s="102"/>
-      <c r="J36" s="200"/>
-      <c r="K36" s="200"/>
+      <c r="J36" s="230"/>
+      <c r="K36" s="230"/>
     </row>
     <row r="37" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="171"/>
-      <c r="B37" s="192"/>
-      <c r="C37" s="193"/>
-      <c r="D37" s="176"/>
-      <c r="E37" s="176"/>
-      <c r="F37" s="176"/>
-      <c r="G37" s="176"/>
-      <c r="H37" s="203"/>
+      <c r="A37" s="206"/>
+      <c r="B37" s="193"/>
+      <c r="C37" s="194"/>
+      <c r="D37" s="187"/>
+      <c r="E37" s="187"/>
+      <c r="F37" s="187"/>
+      <c r="G37" s="187"/>
+      <c r="H37" s="229"/>
       <c r="I37" s="109"/>
-      <c r="J37" s="201"/>
-      <c r="K37" s="201"/>
+      <c r="J37" s="231"/>
+      <c r="K37" s="231"/>
     </row>
     <row r="38" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="100"/>
@@ -7410,11 +7421,11 @@
       <c r="K53" s="100"/>
     </row>
     <row r="54" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="172"/>
-      <c r="B54" s="196"/>
-      <c r="C54" s="198"/>
-      <c r="D54" s="194"/>
-      <c r="E54" s="194"/>
+      <c r="A54" s="207"/>
+      <c r="B54" s="183"/>
+      <c r="C54" s="185"/>
+      <c r="D54" s="181"/>
+      <c r="E54" s="181"/>
       <c r="F54" s="98"/>
       <c r="G54" s="47"/>
       <c r="H54" s="47"/>
@@ -7423,11 +7434,11 @@
       <c r="K54" s="100"/>
     </row>
     <row r="55" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="171"/>
-      <c r="B55" s="197"/>
-      <c r="C55" s="199"/>
-      <c r="D55" s="195"/>
-      <c r="E55" s="195"/>
+      <c r="A55" s="206"/>
+      <c r="B55" s="184"/>
+      <c r="C55" s="186"/>
+      <c r="D55" s="182"/>
+      <c r="E55" s="182"/>
       <c r="F55" s="98"/>
       <c r="G55" s="47"/>
       <c r="H55" s="47"/>
@@ -8252,6 +8263,35 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="J9:J11"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="K9:K11"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
     <mergeCell ref="F8:I8"/>
     <mergeCell ref="C9:C11"/>
     <mergeCell ref="D9:D11"/>
@@ -8262,35 +8302,6 @@
     <mergeCell ref="B5:E7"/>
     <mergeCell ref="H9:H11"/>
     <mergeCell ref="I9:I10"/>
-    <mergeCell ref="K9:K11"/>
-    <mergeCell ref="F9:F11"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="J9:J11"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B20:B21"/>
   </mergeCells>
   <pageMargins left="0.12" right="0.12" top="0.13" bottom="0.28000000000000003" header="0" footer="0"/>
   <pageSetup scale="50" orientation="landscape" r:id="rId1"/>
@@ -8306,10 +8317,10 @@
   <dimension ref="A2:P131"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="3" ySplit="10" topLeftCell="D11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="10" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="G9" sqref="G9:I9"/>
+      <selection pane="bottomRight" activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8449,7 +8460,7 @@
       <c r="P8" s="140"/>
     </row>
     <row r="9" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="229" t="s">
+      <c r="A9" s="232" t="s">
         <v>51</v>
       </c>
       <c r="B9" s="144" t="s">
@@ -8467,24 +8478,24 @@
       <c r="F9" s="141" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="183" t="s">
+      <c r="G9" s="199" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="184"/>
-      <c r="I9" s="185"/>
-      <c r="J9" s="222" t="s">
+      <c r="H9" s="200"/>
+      <c r="I9" s="201"/>
+      <c r="J9" s="234" t="s">
         <v>35</v>
       </c>
-      <c r="K9" s="231" t="s">
+      <c r="K9" s="161" t="s">
         <v>36</v>
       </c>
-      <c r="L9" s="232" t="s">
+      <c r="L9" s="243" t="s">
         <v>37</v>
       </c>
-      <c r="M9" s="232" t="s">
+      <c r="M9" s="162" t="s">
         <v>38</v>
       </c>
-      <c r="N9" s="232" t="s">
+      <c r="N9" s="162" t="s">
         <v>39</v>
       </c>
       <c r="O9" s="132" t="s">
@@ -8495,7 +8506,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="230"/>
+      <c r="A10" s="233"/>
       <c r="B10" s="145"/>
       <c r="C10" s="124"/>
       <c r="D10" s="124"/>
@@ -8510,8 +8521,8 @@
       <c r="I10" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="J10" s="188"/>
-      <c r="K10" s="233"/>
+      <c r="J10" s="189"/>
+      <c r="K10" s="163"/>
       <c r="L10" s="131"/>
       <c r="M10" s="131"/>
       <c r="N10" s="131"/>
@@ -8519,11 +8530,11 @@
       <c r="P10" s="133"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="234"/>
-      <c r="B11" s="235"/>
+      <c r="A11" s="164"/>
+      <c r="B11" s="165"/>
       <c r="C11" s="125"/>
       <c r="D11" s="125"/>
-      <c r="E11" s="236"/>
+      <c r="E11" s="166"/>
       <c r="F11" s="143"/>
       <c r="G11" s="50">
         <v>200</v>
@@ -8534,8 +8545,8 @@
       <c r="I11" s="52">
         <v>200</v>
       </c>
-      <c r="J11" s="188"/>
-      <c r="K11" s="237"/>
+      <c r="J11" s="189"/>
+      <c r="K11" s="167"/>
       <c r="L11" s="135"/>
       <c r="M11" s="135"/>
       <c r="N11" s="135"/>
@@ -8588,7 +8599,7 @@
       <c r="G14" s="72"/>
       <c r="H14" s="73"/>
       <c r="I14" s="73"/>
-      <c r="J14" s="220"/>
+      <c r="J14" s="235"/>
       <c r="K14" s="154"/>
       <c r="L14" s="154"/>
       <c r="M14" s="154"/>
@@ -8606,7 +8617,7 @@
       <c r="G15" s="72"/>
       <c r="H15" s="73"/>
       <c r="I15" s="73"/>
-      <c r="J15" s="221"/>
+      <c r="J15" s="236"/>
       <c r="K15" s="155"/>
       <c r="L15" s="155"/>
       <c r="M15" s="155"/>
@@ -8679,10 +8690,10 @@
       <c r="H19" s="73"/>
       <c r="I19" s="73"/>
       <c r="J19" s="136"/>
-      <c r="K19" s="238"/>
-      <c r="L19" s="239"/>
-      <c r="M19" s="239"/>
-      <c r="N19" s="240"/>
+      <c r="K19" s="168"/>
+      <c r="L19" s="169"/>
+      <c r="M19" s="169"/>
+      <c r="N19" s="170"/>
       <c r="O19" s="58"/>
       <c r="P19" s="58"/>
     </row>
@@ -8697,10 +8708,10 @@
       <c r="H20" s="73"/>
       <c r="I20" s="73"/>
       <c r="J20" s="136"/>
-      <c r="K20" s="238"/>
-      <c r="L20" s="239"/>
-      <c r="M20" s="239"/>
-      <c r="N20" s="240"/>
+      <c r="K20" s="168"/>
+      <c r="L20" s="169"/>
+      <c r="M20" s="169"/>
+      <c r="N20" s="170"/>
       <c r="O20" s="58"/>
       <c r="P20" s="58"/>
     </row>
@@ -8732,11 +8743,11 @@
       <c r="G22" s="72"/>
       <c r="H22" s="73"/>
       <c r="I22" s="73"/>
-      <c r="J22" s="220"/>
+      <c r="J22" s="235"/>
       <c r="K22" s="154"/>
       <c r="L22" s="154"/>
       <c r="M22" s="154"/>
-      <c r="N22" s="241"/>
+      <c r="N22" s="171"/>
       <c r="O22" s="58"/>
       <c r="P22" s="58"/>
     </row>
@@ -8750,11 +8761,11 @@
       <c r="G23" s="72"/>
       <c r="H23" s="73"/>
       <c r="I23" s="73"/>
-      <c r="J23" s="221"/>
+      <c r="J23" s="236"/>
       <c r="K23" s="155"/>
       <c r="L23" s="155"/>
       <c r="M23" s="155"/>
-      <c r="N23" s="242"/>
+      <c r="N23" s="172"/>
       <c r="O23" s="58"/>
       <c r="P23" s="58"/>
     </row>
@@ -8985,10 +8996,10 @@
       <c r="H36" s="73"/>
       <c r="I36" s="73"/>
       <c r="J36" s="136"/>
-      <c r="K36" s="238"/>
-      <c r="L36" s="239"/>
-      <c r="M36" s="239"/>
-      <c r="N36" s="240"/>
+      <c r="K36" s="168"/>
+      <c r="L36" s="169"/>
+      <c r="M36" s="169"/>
+      <c r="N36" s="170"/>
       <c r="O36" s="58"/>
       <c r="P36" s="58"/>
     </row>
@@ -9074,11 +9085,11 @@
       <c r="G41" s="77"/>
       <c r="H41" s="73"/>
       <c r="I41" s="73"/>
-      <c r="J41" s="220"/>
+      <c r="J41" s="235"/>
       <c r="K41" s="154"/>
       <c r="L41" s="154"/>
       <c r="M41" s="148"/>
-      <c r="N41" s="241"/>
+      <c r="N41" s="171"/>
       <c r="O41" s="58"/>
       <c r="P41" s="58"/>
     </row>
@@ -9092,11 +9103,11 @@
       <c r="G42" s="77"/>
       <c r="H42" s="73"/>
       <c r="I42" s="73"/>
-      <c r="J42" s="221"/>
+      <c r="J42" s="236"/>
       <c r="K42" s="155"/>
       <c r="L42" s="155"/>
       <c r="M42" s="149"/>
-      <c r="N42" s="242"/>
+      <c r="N42" s="172"/>
       <c r="O42" s="58"/>
       <c r="P42" s="58"/>
     </row>
@@ -9147,10 +9158,10 @@
       <c r="H45" s="73"/>
       <c r="I45" s="73"/>
       <c r="J45" s="136"/>
-      <c r="K45" s="238"/>
-      <c r="L45" s="239"/>
-      <c r="M45" s="239"/>
-      <c r="N45" s="240"/>
+      <c r="K45" s="168"/>
+      <c r="L45" s="169"/>
+      <c r="M45" s="169"/>
+      <c r="N45" s="170"/>
       <c r="O45" s="58"/>
       <c r="P45" s="58"/>
     </row>
@@ -9165,10 +9176,10 @@
       <c r="H46" s="73"/>
       <c r="I46" s="73"/>
       <c r="J46" s="136"/>
-      <c r="K46" s="238"/>
-      <c r="L46" s="239"/>
-      <c r="M46" s="239"/>
-      <c r="N46" s="240"/>
+      <c r="K46" s="168"/>
+      <c r="L46" s="169"/>
+      <c r="M46" s="169"/>
+      <c r="N46" s="170"/>
       <c r="O46" s="58"/>
       <c r="P46" s="58"/>
     </row>
@@ -9183,10 +9194,10 @@
       <c r="H47" s="73"/>
       <c r="I47" s="73"/>
       <c r="J47" s="136"/>
-      <c r="K47" s="238"/>
-      <c r="L47" s="239"/>
-      <c r="M47" s="239"/>
-      <c r="N47" s="240"/>
+      <c r="K47" s="168"/>
+      <c r="L47" s="169"/>
+      <c r="M47" s="169"/>
+      <c r="N47" s="170"/>
       <c r="O47" s="58"/>
       <c r="P47" s="58"/>
     </row>
@@ -10770,16 +10781,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="226" t="s">
+      <c r="A2" s="239" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="226"/>
-      <c r="C2" s="226"/>
-      <c r="D2" s="226"/>
-      <c r="E2" s="226"/>
-      <c r="F2" s="226"/>
-      <c r="G2" s="226"/>
-      <c r="H2" s="226"/>
+      <c r="B2" s="239"/>
+      <c r="C2" s="239"/>
+      <c r="D2" s="239"/>
+      <c r="E2" s="239"/>
+      <c r="F2" s="239"/>
+      <c r="G2" s="239"/>
+      <c r="H2" s="239"/>
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
       <c r="K2" s="15"/>
@@ -10794,16 +10805,16 @@
       <c r="T2" s="15"/>
     </row>
     <row r="3" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="226" t="s">
+      <c r="A3" s="239" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="226"/>
-      <c r="C3" s="226"/>
-      <c r="D3" s="226"/>
-      <c r="E3" s="226"/>
-      <c r="F3" s="226"/>
-      <c r="G3" s="226"/>
-      <c r="H3" s="226"/>
+      <c r="B3" s="239"/>
+      <c r="C3" s="239"/>
+      <c r="D3" s="239"/>
+      <c r="E3" s="239"/>
+      <c r="F3" s="239"/>
+      <c r="G3" s="239"/>
+      <c r="H3" s="239"/>
       <c r="I3" s="15"/>
       <c r="J3" s="15"/>
       <c r="K3" s="15"/>
@@ -10818,16 +10829,16 @@
       <c r="T3" s="15"/>
     </row>
     <row r="4" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="226" t="s">
+      <c r="A4" s="239" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="226"/>
-      <c r="C4" s="226"/>
-      <c r="D4" s="226"/>
-      <c r="E4" s="226"/>
-      <c r="F4" s="226"/>
-      <c r="G4" s="226"/>
-      <c r="H4" s="226"/>
+      <c r="B4" s="239"/>
+      <c r="C4" s="239"/>
+      <c r="D4" s="239"/>
+      <c r="E4" s="239"/>
+      <c r="F4" s="239"/>
+      <c r="G4" s="239"/>
+      <c r="H4" s="239"/>
       <c r="I4" s="15"/>
       <c r="J4" s="15"/>
       <c r="K4" s="15"/>
@@ -10842,16 +10853,16 @@
       <c r="T4" s="15"/>
     </row>
     <row r="5" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="227" t="s">
+      <c r="A5" s="241" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="227"/>
-      <c r="C5" s="227"/>
-      <c r="D5" s="227"/>
-      <c r="E5" s="227"/>
-      <c r="F5" s="227"/>
-      <c r="G5" s="227"/>
-      <c r="H5" s="227"/>
+      <c r="B5" s="241"/>
+      <c r="C5" s="241"/>
+      <c r="D5" s="241"/>
+      <c r="E5" s="241"/>
+      <c r="F5" s="241"/>
+      <c r="G5" s="241"/>
+      <c r="H5" s="241"/>
       <c r="I5" s="16"/>
       <c r="J5" s="16"/>
       <c r="K5" s="16"/>
@@ -10869,14 +10880,14 @@
       <c r="A7" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="228" t="s">
+      <c r="B7" s="242" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="228"/>
-      <c r="D7" s="228" t="s">
+      <c r="C7" s="242"/>
+      <c r="D7" s="242" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="228"/>
+      <c r="E7" s="242"/>
       <c r="F7" s="18" t="s">
         <v>23</v>
       </c>
@@ -10892,317 +10903,345 @@
     </row>
     <row r="8" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="19"/>
-      <c r="B8" s="225"/>
-      <c r="C8" s="225"/>
-      <c r="D8" s="223"/>
-      <c r="E8" s="224"/>
+      <c r="B8" s="240"/>
+      <c r="C8" s="240"/>
+      <c r="D8" s="237"/>
+      <c r="E8" s="238"/>
       <c r="F8" s="20"/>
       <c r="G8" s="22"/>
       <c r="H8" s="21"/>
     </row>
     <row r="9" spans="1:20" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="19"/>
-      <c r="B9" s="225"/>
-      <c r="C9" s="225"/>
-      <c r="D9" s="223"/>
-      <c r="E9" s="224"/>
+      <c r="B9" s="240"/>
+      <c r="C9" s="240"/>
+      <c r="D9" s="237"/>
+      <c r="E9" s="238"/>
       <c r="F9" s="20"/>
       <c r="G9" s="22"/>
       <c r="H9" s="21"/>
     </row>
     <row r="10" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="19"/>
-      <c r="B10" s="225"/>
-      <c r="C10" s="225"/>
-      <c r="D10" s="223"/>
-      <c r="E10" s="224"/>
+      <c r="B10" s="240"/>
+      <c r="C10" s="240"/>
+      <c r="D10" s="237"/>
+      <c r="E10" s="238"/>
       <c r="F10" s="20"/>
       <c r="G10" s="22"/>
       <c r="H10" s="21"/>
     </row>
     <row r="11" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="19"/>
-      <c r="B11" s="225"/>
-      <c r="C11" s="225"/>
-      <c r="D11" s="223"/>
-      <c r="E11" s="224"/>
+      <c r="B11" s="240"/>
+      <c r="C11" s="240"/>
+      <c r="D11" s="237"/>
+      <c r="E11" s="238"/>
       <c r="F11" s="20"/>
       <c r="G11" s="22"/>
       <c r="H11" s="21"/>
     </row>
     <row r="12" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="19"/>
-      <c r="B12" s="225"/>
-      <c r="C12" s="225"/>
-      <c r="D12" s="223"/>
-      <c r="E12" s="224"/>
+      <c r="B12" s="240"/>
+      <c r="C12" s="240"/>
+      <c r="D12" s="237"/>
+      <c r="E12" s="238"/>
       <c r="F12" s="20"/>
       <c r="G12" s="22"/>
       <c r="H12" s="21"/>
     </row>
     <row r="13" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="19"/>
-      <c r="B13" s="225"/>
-      <c r="C13" s="225"/>
-      <c r="D13" s="223"/>
-      <c r="E13" s="224"/>
+      <c r="B13" s="240"/>
+      <c r="C13" s="240"/>
+      <c r="D13" s="237"/>
+      <c r="E13" s="238"/>
       <c r="F13" s="20"/>
       <c r="G13" s="22"/>
       <c r="H13" s="21"/>
     </row>
     <row r="14" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="19"/>
-      <c r="B14" s="223"/>
-      <c r="C14" s="224"/>
-      <c r="D14" s="223"/>
-      <c r="E14" s="224"/>
+      <c r="B14" s="237"/>
+      <c r="C14" s="238"/>
+      <c r="D14" s="237"/>
+      <c r="E14" s="238"/>
       <c r="F14" s="20"/>
       <c r="G14" s="22"/>
       <c r="H14" s="21"/>
     </row>
     <row r="15" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="19"/>
-      <c r="B15" s="223"/>
-      <c r="C15" s="224"/>
-      <c r="D15" s="223"/>
-      <c r="E15" s="224"/>
+      <c r="B15" s="237"/>
+      <c r="C15" s="238"/>
+      <c r="D15" s="237"/>
+      <c r="E15" s="238"/>
       <c r="F15" s="20"/>
       <c r="G15" s="22"/>
       <c r="H15" s="21"/>
     </row>
     <row r="16" spans="1:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="19"/>
-      <c r="B16" s="223"/>
-      <c r="C16" s="224"/>
-      <c r="D16" s="223"/>
-      <c r="E16" s="224"/>
+      <c r="B16" s="237"/>
+      <c r="C16" s="238"/>
+      <c r="D16" s="237"/>
+      <c r="E16" s="238"/>
       <c r="F16" s="20"/>
       <c r="G16" s="22"/>
       <c r="H16" s="21"/>
     </row>
     <row r="17" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="19"/>
-      <c r="B17" s="223"/>
-      <c r="C17" s="224"/>
-      <c r="D17" s="223"/>
-      <c r="E17" s="224"/>
+      <c r="B17" s="237"/>
+      <c r="C17" s="238"/>
+      <c r="D17" s="237"/>
+      <c r="E17" s="238"/>
       <c r="F17" s="20"/>
       <c r="G17" s="22"/>
       <c r="H17" s="21"/>
     </row>
     <row r="18" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="19"/>
-      <c r="B18" s="223"/>
-      <c r="C18" s="224"/>
-      <c r="D18" s="223"/>
-      <c r="E18" s="224"/>
+      <c r="B18" s="237"/>
+      <c r="C18" s="238"/>
+      <c r="D18" s="237"/>
+      <c r="E18" s="238"/>
       <c r="F18" s="20"/>
       <c r="G18" s="22"/>
       <c r="H18" s="21"/>
     </row>
     <row r="19" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="19"/>
-      <c r="B19" s="223"/>
-      <c r="C19" s="224"/>
-      <c r="D19" s="223"/>
-      <c r="E19" s="224"/>
+      <c r="B19" s="237"/>
+      <c r="C19" s="238"/>
+      <c r="D19" s="237"/>
+      <c r="E19" s="238"/>
       <c r="F19" s="20"/>
       <c r="G19" s="22"/>
       <c r="H19" s="21"/>
     </row>
     <row r="20" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="19"/>
-      <c r="B20" s="223"/>
-      <c r="C20" s="224"/>
-      <c r="D20" s="223"/>
-      <c r="E20" s="224"/>
+      <c r="B20" s="237"/>
+      <c r="C20" s="238"/>
+      <c r="D20" s="237"/>
+      <c r="E20" s="238"/>
       <c r="F20" s="20"/>
       <c r="G20" s="22"/>
       <c r="H20" s="21"/>
     </row>
     <row r="21" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="19"/>
-      <c r="B21" s="225"/>
-      <c r="C21" s="225"/>
-      <c r="D21" s="223"/>
-      <c r="E21" s="224"/>
+      <c r="B21" s="240"/>
+      <c r="C21" s="240"/>
+      <c r="D21" s="237"/>
+      <c r="E21" s="238"/>
       <c r="F21" s="20"/>
       <c r="G21" s="22"/>
       <c r="H21" s="21"/>
     </row>
     <row r="22" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="19"/>
-      <c r="B22" s="225"/>
-      <c r="C22" s="225"/>
-      <c r="D22" s="223"/>
-      <c r="E22" s="224"/>
+      <c r="B22" s="240"/>
+      <c r="C22" s="240"/>
+      <c r="D22" s="237"/>
+      <c r="E22" s="238"/>
       <c r="F22" s="20"/>
       <c r="G22" s="22"/>
       <c r="H22" s="21"/>
     </row>
     <row r="23" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="19"/>
-      <c r="B23" s="225"/>
-      <c r="C23" s="225"/>
-      <c r="D23" s="223"/>
-      <c r="E23" s="224"/>
+      <c r="B23" s="240"/>
+      <c r="C23" s="240"/>
+      <c r="D23" s="237"/>
+      <c r="E23" s="238"/>
       <c r="F23" s="20"/>
       <c r="G23" s="22"/>
       <c r="H23" s="21"/>
     </row>
     <row r="24" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="19"/>
-      <c r="B24" s="225"/>
-      <c r="C24" s="225"/>
-      <c r="D24" s="223"/>
-      <c r="E24" s="224"/>
+      <c r="B24" s="240"/>
+      <c r="C24" s="240"/>
+      <c r="D24" s="237"/>
+      <c r="E24" s="238"/>
       <c r="F24" s="20"/>
       <c r="G24" s="22"/>
       <c r="H24" s="21"/>
     </row>
     <row r="25" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="19"/>
-      <c r="B25" s="225"/>
-      <c r="C25" s="225"/>
-      <c r="D25" s="223"/>
-      <c r="E25" s="224"/>
+      <c r="B25" s="240"/>
+      <c r="C25" s="240"/>
+      <c r="D25" s="237"/>
+      <c r="E25" s="238"/>
       <c r="F25" s="20"/>
       <c r="G25" s="22"/>
       <c r="H25" s="21"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="19"/>
-      <c r="B26" s="223"/>
-      <c r="C26" s="224"/>
-      <c r="D26" s="223"/>
-      <c r="E26" s="224"/>
+      <c r="B26" s="237"/>
+      <c r="C26" s="238"/>
+      <c r="D26" s="237"/>
+      <c r="E26" s="238"/>
       <c r="F26" s="20"/>
       <c r="G26" s="22"/>
       <c r="H26" s="21"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="19"/>
-      <c r="B27" s="223"/>
-      <c r="C27" s="224"/>
-      <c r="D27" s="223"/>
-      <c r="E27" s="224"/>
+      <c r="B27" s="237"/>
+      <c r="C27" s="238"/>
+      <c r="D27" s="237"/>
+      <c r="E27" s="238"/>
       <c r="F27" s="20"/>
       <c r="G27" s="22"/>
       <c r="H27" s="21"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="19"/>
-      <c r="B28" s="223"/>
-      <c r="C28" s="224"/>
-      <c r="D28" s="223"/>
-      <c r="E28" s="224"/>
+      <c r="B28" s="237"/>
+      <c r="C28" s="238"/>
+      <c r="D28" s="237"/>
+      <c r="E28" s="238"/>
       <c r="F28" s="20"/>
       <c r="G28" s="22"/>
       <c r="H28" s="21"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="19"/>
-      <c r="B29" s="223"/>
-      <c r="C29" s="224"/>
-      <c r="D29" s="223"/>
-      <c r="E29" s="224"/>
+      <c r="B29" s="237"/>
+      <c r="C29" s="238"/>
+      <c r="D29" s="237"/>
+      <c r="E29" s="238"/>
       <c r="F29" s="20"/>
       <c r="G29" s="22"/>
       <c r="H29" s="21"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="19"/>
-      <c r="B30" s="223"/>
-      <c r="C30" s="224"/>
-      <c r="D30" s="223"/>
-      <c r="E30" s="224"/>
+      <c r="B30" s="237"/>
+      <c r="C30" s="238"/>
+      <c r="D30" s="237"/>
+      <c r="E30" s="238"/>
       <c r="F30" s="20"/>
       <c r="G30" s="22"/>
       <c r="H30" s="21"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="19"/>
-      <c r="B31" s="223"/>
-      <c r="C31" s="224"/>
-      <c r="D31" s="223"/>
-      <c r="E31" s="224"/>
+      <c r="B31" s="237"/>
+      <c r="C31" s="238"/>
+      <c r="D31" s="237"/>
+      <c r="E31" s="238"/>
       <c r="F31" s="20"/>
       <c r="G31" s="22"/>
       <c r="H31" s="21"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="19"/>
-      <c r="B32" s="223"/>
-      <c r="C32" s="224"/>
-      <c r="D32" s="223"/>
-      <c r="E32" s="224"/>
+      <c r="B32" s="237"/>
+      <c r="C32" s="238"/>
+      <c r="D32" s="237"/>
+      <c r="E32" s="238"/>
       <c r="F32" s="20"/>
       <c r="G32" s="22"/>
       <c r="H32" s="21"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="19"/>
-      <c r="B33" s="223"/>
-      <c r="C33" s="224"/>
-      <c r="D33" s="223"/>
-      <c r="E33" s="224"/>
+      <c r="B33" s="237"/>
+      <c r="C33" s="238"/>
+      <c r="D33" s="237"/>
+      <c r="E33" s="238"/>
       <c r="F33" s="20"/>
       <c r="G33" s="22"/>
       <c r="H33" s="21"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="19"/>
-      <c r="B34" s="223"/>
-      <c r="C34" s="224"/>
-      <c r="D34" s="223"/>
-      <c r="E34" s="224"/>
+      <c r="B34" s="237"/>
+      <c r="C34" s="238"/>
+      <c r="D34" s="237"/>
+      <c r="E34" s="238"/>
       <c r="F34" s="20"/>
       <c r="G34" s="22"/>
       <c r="H34" s="21"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="19"/>
-      <c r="B35" s="223"/>
-      <c r="C35" s="224"/>
-      <c r="D35" s="223"/>
-      <c r="E35" s="224"/>
+      <c r="B35" s="237"/>
+      <c r="C35" s="238"/>
+      <c r="D35" s="237"/>
+      <c r="E35" s="238"/>
       <c r="F35" s="20"/>
       <c r="G35" s="22"/>
       <c r="H35" s="21"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="19"/>
-      <c r="B36" s="223"/>
-      <c r="C36" s="224"/>
-      <c r="D36" s="223"/>
-      <c r="E36" s="224"/>
+      <c r="B36" s="237"/>
+      <c r="C36" s="238"/>
+      <c r="D36" s="237"/>
+      <c r="E36" s="238"/>
       <c r="F36" s="20"/>
       <c r="G36" s="22"/>
       <c r="H36" s="21"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="19"/>
-      <c r="B37" s="223"/>
-      <c r="C37" s="224"/>
-      <c r="D37" s="223"/>
-      <c r="E37" s="224"/>
+      <c r="B37" s="237"/>
+      <c r="C37" s="238"/>
+      <c r="D37" s="237"/>
+      <c r="E37" s="238"/>
       <c r="F37" s="20"/>
       <c r="G37" s="22"/>
       <c r="H37" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B20:C20"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="B21:C21"/>
@@ -11219,45 +11258,17 @@
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D16:E16"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
